--- a/parents_payments.xlsx
+++ b/parents_payments.xlsx
@@ -174,7 +174,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +185,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -221,16 +227,16 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -240,7 +246,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,7 +631,7 @@
         <v>45935</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -642,7 +648,7 @@
         <v>45932</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -659,7 +665,7 @@
         <v>45949</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -676,7 +682,7 @@
         <v>45939</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -693,7 +699,7 @@
         <v>45950</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -710,7 +716,7 @@
         <v>45952</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -727,7 +733,7 @@
         <v>45960</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -744,7 +750,7 @@
         <v>45939</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -761,7 +767,7 @@
         <v>45935</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -778,7 +784,7 @@
         <v>45933</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -795,7 +801,7 @@
         <v>45952</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -812,7 +818,7 @@
         <v>45954</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -829,7 +835,7 @@
         <v>45951</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -846,7 +852,7 @@
         <v>45941</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -863,7 +869,7 @@
         <v>45949</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -880,7 +886,7 @@
         <v>45946</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -897,7 +903,7 @@
         <v>45937</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
